--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_기초단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_기초단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,14 +622,110 @@
           <t>(기다) 코를 땅에 대고 포복하다</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20230105</t>
-        </is>
+      <c r="D8" t="n">
+        <v>20230105</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>flatter</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(즐겁게 하다) 납짝엎드리다 아첨하다</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>06시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>befall</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(훼손하십시오) 아래를 파니까 손상시키다</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(생기다) 나도 언젠가는 빛 볼날이 생기다</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(심오한) 프로가 찾은 심오함</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(특성) 적당한 재산</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(반란) 후에 돌아서서 반항, 반란을 일으키다</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(선잠) 랩하는 친구가 낮잠잔다</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_기초단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_기초단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,14 +718,64 @@
           <t>(선잠) 랩하는 친구가 낮잠잔다</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20230106</t>
-        </is>
+      <c r="D12" t="n">
+        <v>20230106</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(존중) 에스팀을 존경하다</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(조종하다)스타(별)를 보고 배를 조종하다</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>prose</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(사기) 프로 사기꾼</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(산문)풀어서 쓴글 산문</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20230112</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22시 55분</t>
         </is>
       </c>
     </row>
